--- a/data/cleaned_data/tableu_visual/combined_data_long.xlsx
+++ b/data/cleaned_data/tableu_visual/combined_data_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BC Student\OneDrive - Bennett College\Periods-Worldwide\data\cleaned_data\tableu_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219C71EE-719F-4765-81E1-509E37E8101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABC3DE-D01C-437A-B328-8A84ED42308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" xr2:uid="{236E734C-836B-4C9B-9214-3C284AB58403}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="36">
   <si>
     <t>country</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Tanzania</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>somethib</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">something </t>
   </si>
 </sst>
 </file>
@@ -976,9 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C320827-85C8-450E-8EDC-239348536F49}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1526,7 +1540,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1542,8 +1556,20 @@
       <c r="E33">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1586,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1603,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1594,7 +1620,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1611,7 +1637,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1628,7 +1654,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1671,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1688,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1705,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1722,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1739,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1756,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1773,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1764,7 +1790,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1807,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
